--- a/data/trans_dic/P1802-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1802-Provincia-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">

--- a/data/trans_dic/P1802-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1802-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,48 +544,84 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -606,17 +661,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,51%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,22%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +681,37 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>25,52%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>39,84%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>22,99%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>35,62%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>0; 0,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>16,23; 26,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>25,67; 36,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>20,82; 30,91</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>35,65; 44,19</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,37</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>19,34; 26,53</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>32,46; 39,55</t>
         </is>
       </c>
     </row>
@@ -691,12 +806,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,52%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -707,6 +822,36 @@
       <c r="H6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>19,42%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>17,38%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>17,51%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>14,29%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0; 0,41</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,41</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>12,41; 18,94</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>8,35; 14,57</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,38</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0; 0,4</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,5</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,4</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,27</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>16,01; 23,29</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>14,49; 20,53</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>0; 0,2</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,18</t>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,2</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>15,13; 20,07</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>12,2; 16,53</t>
         </is>
       </c>
     </row>
@@ -771,12 +946,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,59%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -787,6 +962,36 @@
       <c r="H8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>9,92%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>26,26%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>8,74%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>24,56%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0; 0,62</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,6</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4,9; 10,5</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>18,5; 27,3</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>0; 0,57</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,53</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,58</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,36</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,29</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0; 0,6</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>7,13; 14,21</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>22,58; 30,82</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,3</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,3</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>6,56; 11,28</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>21,96; 27,74</t>
         </is>
       </c>
     </row>
@@ -851,12 +1086,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,38%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -867,6 +1102,36 @@
       <c r="H10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>22,12%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>13,57%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>20,53%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>14,78%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>0; 0,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>14,8; 23,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>11,94; 21,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0; 0,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0; 0,31</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>17,83; 26,37</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>10,86; 16,82</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,26</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,15</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>17,74; 23,64</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>12,23; 17,72</t>
         </is>
       </c>
     </row>
@@ -931,12 +1226,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,06%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -947,6 +1242,36 @@
       <c r="H12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>18,36%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,47%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>18,53%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8,95%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0; 0,93</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,97</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>13,61; 24,33</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>8,97; 18,7</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,96</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>0; 0,9</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,69</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,86</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,39</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,44</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,25</t>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>13,64; 23,74</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3,78; 7,78</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,47</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,47</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>15,07; 22,72</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>6,92; 11,99</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1366,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1027,6 +1382,36 @@
       <c r="H14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>20,45%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>19,97%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>17,04%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>18,7%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>0; 0,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>0; 0,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>9,58; 17,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>13,48; 21,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0; 0,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0; 0,71</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>16,27; 25,65</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>16,23; 24,14</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,36</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,36</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>14,05; 20,61</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>15,75; 21,7</t>
         </is>
       </c>
     </row>
@@ -1091,12 +1506,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,03%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1107,6 +1522,36 @@
       <c r="H16" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>16,58%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>22,39%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>13,51%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>21,79%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0; 0,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
+          <t>8,0; 13,01</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>17,63; 24,79</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,31</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>0; 0,3</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>13,89; 19,97</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>14,18; 26,98</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
         <is>
           <t>0; 0,16</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,12</t>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,15</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>11,74; 15,64</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>16,96; 24,65</t>
         </is>
       </c>
     </row>
@@ -1171,12 +1646,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,54%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1187,6 +1662,36 @@
       <c r="H18" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>19,89%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7,05%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>17,29%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>9,44%</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1709,57 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
+          <t>0; 0,27</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>12,15; 17,01</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5,65; 29,68</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,26</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>0; 0,25</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,25</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,18</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>17,2; 22,71</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>5,62; 8,66</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>0; 0,13</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,11</t>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,13</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>15,16; 19,13</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>6,22; 19,08</t>
         </is>
       </c>
     </row>
@@ -1251,12 +1786,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,89%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1267,6 +1802,36 @@
       <c r="H20" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>18,88%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>17,59%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>16,67%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>17,26%</t>
         </is>
       </c>
     </row>
@@ -1289,22 +1854,52 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
+          <t>13,19; 15,62</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>15,04; 21,97</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,04</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,06</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>17,52; 20,29</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>15,82; 18,79</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
         <is>
           <t>0; 0,03</t>
         </is>
       </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,02</t>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,03</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>15,76; 17,63</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>16,15; 19,12</t>
         </is>
       </c>
     </row>
@@ -1318,16 +1913,16 @@
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>

--- a/data/trans_dic/P1802-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1802-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>31,22%</t>
+          <t>30,27%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>39,84%</t>
+          <t>39,33%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>35,62%</t>
+          <t>34,63%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,67; 36,56</t>
+          <t>24,66; 36,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,65; 44,19</t>
+          <t>34,92; 43,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,36</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>32,46; 39,55</t>
+          <t>31,26; 38,88</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,38%</t>
+          <t>17,3%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>13,94%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,35; 14,57</t>
+          <t>8,05; 14,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,49; 20,53</t>
+          <t>14,49; 20,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,2; 16,53</t>
+          <t>11,9; 16,18</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>22,21%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>26,26%</t>
+          <t>26,22%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>24,56%</t>
+          <t>24,32%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,5; 27,3</t>
+          <t>18,12; 26,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,58; 30,82</t>
+          <t>22,54; 30,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>21,96; 27,74</t>
+          <t>21,72; 27,43</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,38%</t>
+          <t>16,47%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>13,36%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0; 0,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,94; 21,91</t>
+          <t>11,85; 22,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0; 0,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,86; 16,82</t>
+          <t>7,11; 15,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0; 0,27</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,23; 17,72</t>
+          <t>9,55; 16,43</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>8,97%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,97; 18,7</t>
+          <t>8,88; 18,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,78; 7,78</t>
+          <t>3,87; 7,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,92; 11,99</t>
+          <t>6,97; 11,91</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>19,97%</t>
+          <t>19,84%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>18,56%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,48; 21,54</t>
+          <t>13,47; 21,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,23; 24,14</t>
+          <t>16,15; 23,97</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>15,75; 21,7</t>
+          <t>15,59; 21,57</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>21,03%</t>
+          <t>20,6%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>22,39%</t>
+          <t>19,67%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>21,79%</t>
+          <t>20,06%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,63; 24,79</t>
+          <t>17,2; 24,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,18; 26,98</t>
+          <t>9,46; 26,82</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>16,96; 24,65</t>
+          <t>11,38; 24,0</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>30,93%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>20,56%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,65; 29,68</t>
+          <t>5,66; 66,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,62; 8,66</t>
+          <t>5,67; 8,73</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>6,22; 19,08</t>
+          <t>6,3; 50,22</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>16,89%</t>
+          <t>21,87%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>17,18%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>17,26%</t>
+          <t>19,46%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>15,04; 21,97</t>
+          <t>15,47; 42,06</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>15,82; 18,79</t>
+          <t>14,25; 18,72</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>16,15; 19,12</t>
+          <t>16,22; 28,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P1802-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1802-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -734,12 +735,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,23; 26,07</t>
+          <t>15,75; 25,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,66; 36,17</t>
+          <t>24,55; 36,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,12 +755,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,82; 30,91</t>
+          <t>20,69; 31,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>34,92; 43,88</t>
+          <t>35,0; 44,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,19 +775,19 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,34; 26,53</t>
+          <t>19,41; 26,54</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>31,26; 38,88</t>
+          <t>30,95; 38,66</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -874,12 +875,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,41; 18,94</t>
+          <t>12,55; 19,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,05; 14,13</t>
+          <t>7,83; 13,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,12 +895,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,01; 23,29</t>
+          <t>16,28; 23,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,49; 20,39</t>
+          <t>14,66; 20,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -914,19 +915,19 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,13; 20,07</t>
+          <t>15,25; 19,98</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,9; 16,18</t>
+          <t>11,95; 15,89</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1014,12 +1015,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,9; 10,5</t>
+          <t>4,95; 10,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,12; 26,89</t>
+          <t>17,93; 26,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,12 +1035,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,13; 14,21</t>
+          <t>6,67; 13,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,54; 30,8</t>
+          <t>22,59; 30,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1055,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,56; 11,28</t>
+          <t>6,75; 10,93</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>21,72; 27,43</t>
+          <t>21,62; 27,34</t>
         </is>
       </c>
     </row>
@@ -1154,12 +1155,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,8; 23,27</t>
+          <t>14,9; 23,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,85; 22,18</t>
+          <t>12,0; 21,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1174,12 +1175,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,83; 26,37</t>
+          <t>18,26; 26,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,11; 15,07</t>
+          <t>6,51; 14,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1194,12 +1195,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,74; 23,64</t>
+          <t>17,58; 23,59</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,55; 16,43</t>
+          <t>9,6; 16,81</t>
         </is>
       </c>
     </row>
@@ -1294,12 +1295,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,61; 24,33</t>
+          <t>13,65; 24,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,88; 18,44</t>
+          <t>8,84; 17,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1314,12 +1315,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,64; 23,74</t>
+          <t>13,34; 23,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,87; 7,95</t>
+          <t>3,9; 7,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1334,19 +1335,19 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,07; 22,72</t>
+          <t>15,17; 22,6</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,97; 11,91</t>
+          <t>6,85; 11,53</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1434,12 +1435,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,58; 17,92</t>
+          <t>9,88; 18,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,47; 21,55</t>
+          <t>13,77; 22,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1454,12 +1455,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>16,27; 25,65</t>
+          <t>16,32; 25,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,15; 23,97</t>
+          <t>16,41; 23,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1474,19 +1475,19 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>14,05; 20,61</t>
+          <t>14,0; 20,54</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>15,59; 21,57</t>
+          <t>15,89; 21,76</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1574,12 +1575,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,0; 13,01</t>
+          <t>7,99; 12,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,2; 24,48</t>
+          <t>17,38; 24,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1594,12 +1595,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,89; 19,97</t>
+          <t>13,64; 19,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,46; 26,82</t>
+          <t>9,9; 26,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1614,12 +1615,12 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>11,74; 15,64</t>
+          <t>11,6; 15,63</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,38; 24,0</t>
+          <t>12,59; 24,23</t>
         </is>
       </c>
     </row>
@@ -1714,12 +1715,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>12,15; 17,01</t>
+          <t>11,94; 17,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,66; 66,82</t>
+          <t>5,78; 69,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1734,12 +1735,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,2; 22,71</t>
+          <t>16,98; 23,08</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,67; 8,73</t>
+          <t>5,65; 8,82</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1754,12 +1755,12 @@
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>15,16; 19,13</t>
+          <t>15,48; 19,25</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>6,3; 50,22</t>
+          <t>6,36; 50,33</t>
         </is>
       </c>
     </row>
@@ -1854,12 +1855,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>13,19; 15,62</t>
+          <t>13,21; 15,59</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>15,47; 42,06</t>
+          <t>15,51; 39,21</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1874,12 +1875,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>17,52; 20,29</t>
+          <t>17,61; 20,31</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>14,25; 18,72</t>
+          <t>14,19; 18,83</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1894,12 +1895,12 @@
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>15,76; 17,63</t>
+          <t>15,7; 17,55</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>16,22; 28,47</t>
+          <t>16,13; 29,32</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que en los últimos 12 meses han visitado un centro de servicio de radiología</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>60237</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>94259</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>73686</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>113900</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>133922</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>208158</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1926</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1999</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>46268; 74267</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>76446; 113438</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2035</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2145</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>59741; 90895</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>101360; 128460</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1983</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2073</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>113067; 154595</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>186059; 232352</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>78023</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>55027</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>101589</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>88648</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>179612</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>143675</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2031</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2052</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>63071; 96867</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>40581; 72052</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1935</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2091</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>85183; 122020</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>75092; 105259</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1984</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2074</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>156364; 204917</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>123167; 163743</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>23845</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>70198</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>33364</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>91548</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>57209</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>161746</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1944</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15775; 34844</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>56681; 83889</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1916</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2058</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>22426; 45565</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>78865; 106352</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1945</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2005</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>44196; 71560</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>143813; 181841</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>69817</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>51470</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>85676</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>53820</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>155493</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>105290</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1897</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2081</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>55125; 86975</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>37520; 67480</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1852</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2007</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>70702; 103281</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>30963; 70359</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1877</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2046</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>133121; 178644</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>75658; 132501</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>39521</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>23095</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>40141</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>11669</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>79662</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>34764</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1885</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2071</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>28836; 51337</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>15800; 31193</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2002</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1978</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>29170; 51614</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>8147; 15923</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1948</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2029</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>65196; 97151</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>26542; 44664</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>35512</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>46764</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>55852</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>51008</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>91364</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>97772</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1947</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2007</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>25985; 47772</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>37127; 60362</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1970</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1991</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>44583; 69889</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>42191; 61459</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1963</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2003</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>75088; 110163</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>83704; 114594</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>67449</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>128316</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>114640</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>167011</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>182089</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>295328</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1971</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2056</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>52459; 84153</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>108230; 151907</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1970</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2091</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>94268; 135853</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>84107; 225587</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1973</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2076</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>156363; 210687</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>185321; 356640</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>113203</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>287283</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>164313</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>51165</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>277516</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>338448</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1938</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2084</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>92971; 133820</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>53707; 645962</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2017</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2087</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>140299; 190669</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>40528; 63264</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1979</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2087</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>248360; 308859</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>104671; 828417</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>617</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1080</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>1077</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>1642</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>487606</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>756412</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>669261</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>628769</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>1156867</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>1385181</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>0; 1957</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>0; 2050</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>448325; 529152</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>536352; 1355860</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>0; 2072</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>624057; 719826</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>519362; 688894</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>0; 1963</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>0; 2061</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>1089079; 1217827</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>1147801; 2086821</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>